--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Default\Documents\my project\productivity-tools\装修总结\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E17A90-0229-40A8-A19D-D44205A6305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410C37B-771E-4F93-8B09-F4332F0EC742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>总价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主卫卫生间门</t>
-  </si>
-  <si>
-    <t>公卫卫生间门</t>
-  </si>
-  <si>
     <t>种类</t>
   </si>
   <si>
@@ -87,15 +81,6 @@
     <t>美缝剂</t>
   </si>
   <si>
-    <t>主卧木门</t>
-  </si>
-  <si>
-    <t>父母房木门</t>
-  </si>
-  <si>
-    <t>多功能房木门</t>
-  </si>
-  <si>
     <t>中央空调</t>
   </si>
   <si>
@@ -114,21 +99,12 @@
     <t>插座</t>
   </si>
   <si>
-    <t>灯具</t>
-  </si>
-  <si>
     <t>开关</t>
   </si>
   <si>
     <t>客厅</t>
   </si>
   <si>
-    <t>封阳台</t>
-  </si>
-  <si>
-    <t>厕所</t>
-  </si>
-  <si>
     <t>花洒</t>
   </si>
   <si>
@@ -141,27 +117,9 @@
     <t>马桶</t>
   </si>
   <si>
-    <t>公卫浴霸</t>
-  </si>
-  <si>
     <t>京东京造</t>
   </si>
   <si>
-    <t>主卫浴霸</t>
-  </si>
-  <si>
-    <t>公卫洗手盆</t>
-  </si>
-  <si>
-    <t>主卫洗手盆</t>
-  </si>
-  <si>
-    <t>公卫淋浴隔断</t>
-  </si>
-  <si>
-    <t>主卫淋浴隔断</t>
-  </si>
-  <si>
     <t>地漏</t>
   </si>
   <si>
@@ -174,232 +132,296 @@
     <t>新世界石材市场 纯色</t>
   </si>
   <si>
+    <t>吊轨3.5平双门欧派克滑轮</t>
+  </si>
+  <si>
+    <t>橱柜</t>
+  </si>
+  <si>
+    <t>浪鲸</t>
+  </si>
+  <si>
+    <t>淘宝旗舰店</t>
+  </si>
+  <si>
+    <t>热水器</t>
+  </si>
+  <si>
+    <t>美的mate16L</t>
+  </si>
+  <si>
+    <t>迷瞪1799</t>
+  </si>
+  <si>
+    <t>抽油烟机</t>
+  </si>
+  <si>
+    <t>方太ZD12、方太F2.i</t>
+  </si>
+  <si>
+    <t>燃气灶</t>
+  </si>
+  <si>
+    <t>方太5kw</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>美的508</t>
+  </si>
+  <si>
+    <t>天猫京东旗舰店</t>
+  </si>
+  <si>
+    <t>洗碗机</t>
+  </si>
+  <si>
+    <t>方太03-G6</t>
+  </si>
+  <si>
+    <t>重百</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>雷鸟鹏7pro</t>
+  </si>
+  <si>
+    <t>微信群友tcl内购，筒隐陆奥</t>
+  </si>
+  <si>
+    <t>洗衣机、烘干机</t>
+  </si>
+  <si>
+    <t>海尔176xs+376</t>
+  </si>
+  <si>
+    <t>沙发</t>
+  </si>
+  <si>
+    <t>净水机</t>
+  </si>
+  <si>
+    <t>前置过滤器</t>
+  </si>
+  <si>
+    <t>日夜蜂巢帘</t>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+  </si>
+  <si>
+    <t>要找团，迷瞪7500，抖音直播间7600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楠桂园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动窗帘电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中枢网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米6500pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东自营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米家1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐天鹅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠达HDC6218 抗菌座圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90cm洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60cm洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石型淋浴隔断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字型淋浴隔断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒射灯灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>厨房门</t>
-  </si>
-  <si>
-    <t>吊轨3.5平双门欧派克滑轮</t>
-  </si>
-  <si>
-    <t>橱柜</t>
-  </si>
-  <si>
-    <t>厨房水槽</t>
-  </si>
-  <si>
-    <t>浪鲸</t>
-  </si>
-  <si>
-    <t>淘宝旗舰店</t>
-  </si>
-  <si>
-    <t>厨卫吊顶</t>
-  </si>
-  <si>
-    <t>热水器</t>
-  </si>
-  <si>
-    <t>美的mate16L</t>
-  </si>
-  <si>
-    <t>迷瞪1799</t>
-  </si>
-  <si>
-    <t>抽油烟机</t>
-  </si>
-  <si>
-    <t>方太ZD12、方太F2.i</t>
-  </si>
-  <si>
-    <t>燃气灶</t>
-  </si>
-  <si>
-    <t>方太5kw</t>
-  </si>
-  <si>
-    <t>冰箱</t>
-  </si>
-  <si>
-    <t>美的508</t>
-  </si>
-  <si>
-    <t>天猫京东旗舰店</t>
-  </si>
-  <si>
-    <t>洗碗机</t>
-  </si>
-  <si>
-    <t>方太03-G6</t>
-  </si>
-  <si>
-    <t>重百</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>雷鸟鹏7pro</t>
-  </si>
-  <si>
-    <t>微信群友tcl内购，筒隐陆奥</t>
-  </si>
-  <si>
-    <t>洗衣机、烘干机</t>
-  </si>
-  <si>
-    <t>海尔176xs+376</t>
-  </si>
-  <si>
-    <t>沙发</t>
-  </si>
-  <si>
-    <t>主卧床</t>
-  </si>
-  <si>
-    <t>父母房床</t>
-  </si>
-  <si>
-    <t>主卧床垫</t>
-  </si>
-  <si>
-    <t>父母房床垫</t>
-  </si>
-  <si>
-    <t>净水机</t>
-  </si>
-  <si>
-    <t>前置过滤器</t>
-  </si>
-  <si>
-    <t>厕所置物架</t>
-  </si>
-  <si>
-    <t>日夜蜂巢帘</t>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-  </si>
-  <si>
-    <t>要找团，迷瞪7500，抖音直播间7600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楠桂园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晾衣架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多功能房窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母房窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多功能房书桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧书桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧斗柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧电动窗帘电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动窗帘电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中枢网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多功能房吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主路由器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米6500pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东自营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米家1s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天鹅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖音直播间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠达HDC6218 抗菌座圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝扣板吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推拉窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁性黑板电表箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱电箱盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉联卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九牧36453无喷枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -801,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -813,27 +835,27 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -843,23 +865,23 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
         <v>10800</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6">
         <v>8000</v>
@@ -871,7 +893,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
@@ -881,7 +903,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
@@ -891,16 +913,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
         <v>28000</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>25000</v>
@@ -911,23 +933,23 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <v>25000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
@@ -937,7 +959,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
@@ -947,7 +969,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
@@ -957,7 +979,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
@@ -966,8 +988,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
@@ -977,10 +999,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -988,8 +1010,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>99</v>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="1"/>
@@ -999,58 +1021,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B17" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="1"/>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="6">
-        <v>4000</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1058,69 +1081,70 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B23" s="6">
-        <v>599</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="6">
+        <v>599</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="1"/>
@@ -1130,7 +1154,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="1"/>
@@ -1139,8 +1163,8 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>74</v>
+      <c r="A29" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="1"/>
@@ -1150,11 +1174,9 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1000</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1162,11 +1184,9 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1000</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1174,7 +1194,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B32" s="6">
         <v>1000</v>
@@ -1196,7 +1216,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
@@ -1206,7 +1226,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="1"/>
@@ -1216,19 +1236,17 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="1"/>
@@ -1238,7 +1256,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="1"/>
@@ -1248,17 +1266,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>101</v>
+      <c r="A40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
@@ -1268,9 +1288,11 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1000</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1278,19 +1300,17 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>29</v>
+      <c r="A43" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="1"/>
@@ -1300,11 +1320,9 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1200</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1312,19 +1330,17 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1200</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>30</v>
+      <c r="A46" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="1"/>
@@ -1334,93 +1350,73 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="6">
-        <v>500</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="6">
-        <v>963</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B49" s="6">
-        <v>330</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="6">
-        <v>330</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="6">
-        <v>2500</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1800</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1428,10 +1424,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B54" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1440,58 +1436,70 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="6">
+        <v>963</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="6">
+        <v>330</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B57" s="6">
-        <v>1620</v>
+        <v>699</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B58" s="6">
         <v>2000</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B59" s="6">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1500,27 +1508,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="6">
-        <v>1000</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1528,72 +1528,62 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B62" s="6">
-        <v>5000</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B64" s="6">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B65" s="6">
-        <v>5600</v>
+        <v>330</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B66" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="1"/>
@@ -1602,10 +1592,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B67" s="6">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1613,8 +1603,8 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>85</v>
+      <c r="A68" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="1"/>
@@ -1623,78 +1613,246 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6">
-        <v>8000</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B70" s="6">
-        <v>2000</v>
+        <v>1620</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B72" s="6">
-        <v>899</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="6">
+        <v>4500</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="6">
+        <v>5600</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="6">
+        <v>800</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="6">
+        <v>8000</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="6">
+        <v>900</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="6">
+        <v>899</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="6">
-        <f>SUM(B3:B72)</f>
-        <v>139241</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1">
-        <f>SUM(E3:E72)</f>
+      <c r="B85" s="6">
+        <f>SUM(B3:B84)</f>
+        <v>140040</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <f>SUM(E3:E84)</f>
         <v>25000</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F85" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410C37B-771E-4F93-8B09-F4332F0EC742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B3B5A-683E-491E-B349-13575B61EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A85" sqref="A1:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1629,10 +1629,9 @@
       <c r="B70" s="6">
         <v>1620</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE3391-D0D4-4E3D-BDED-B2429F7FA56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4BF695-A934-4A78-9840-DF09E1AF8B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1849,9 +1849,6 @@
       <c r="F85" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Default\Documents\my project\productivity-tools\装修总结\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4BF695-A934-4A78-9840-DF09E1AF8B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C154D6D-FEE2-4AA1-9B8C-70AC0C864FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>种类</t>
   </si>
@@ -364,6 +365,15 @@
   </si>
   <si>
     <t>品得门窗</t>
+  </si>
+  <si>
+    <t>惠尔顿p0038</t>
+  </si>
+  <si>
+    <t>京东旗舰店，历史最低309</t>
+  </si>
+  <si>
+    <t>实际差价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +433,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -477,11 +487,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,8 +551,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -812,37 +864,41 @@
     <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -850,9 +906,10 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -866,9 +923,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F4" s="13"/>
+      <c r="G4" s="15" t="str">
+        <f>IF(ISBLANK(E4),"",B4-E4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -878,9 +939,13 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" s="13"/>
+      <c r="G5" s="15" t="str">
+        <f t="shared" ref="G5:G68" si="0">IF(ISBLANK(E5),"",B5-E5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -888,9 +953,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F6" s="13"/>
+      <c r="G6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -898,9 +967,13 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="13"/>
+      <c r="G7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -916,11 +989,15 @@
       <c r="E8" s="8">
         <v>25000</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -934,9 +1011,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F9" s="13"/>
+      <c r="G9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -944,9 +1025,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F10" s="13"/>
+      <c r="G10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -954,9 +1039,13 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="13"/>
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -964,9 +1053,13 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="13"/>
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -974,9 +1067,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F13" s="13"/>
+      <c r="G13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -984,9 +1081,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F14" s="13"/>
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -996,9 +1097,13 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F15" s="13"/>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1006,9 +1111,13 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F16" s="13"/>
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1020,9 +1129,13 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="13"/>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1032,9 +1145,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="13"/>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -1042,9 +1159,13 @@
       <c r="C19" s="10"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="13"/>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1058,9 +1179,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="13"/>
+      <c r="G20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1068,9 +1193,13 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="13"/>
+      <c r="G21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1078,9 +1207,13 @@
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="13"/>
+      <c r="G22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1090,9 +1223,13 @@
       <c r="C23" s="10"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="13"/>
+      <c r="G23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -1100,9 +1237,13 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="13"/>
+      <c r="G24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
@@ -1116,9 +1257,13 @@
         <v>67</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F25" s="13"/>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1132,9 +1277,13 @@
         <v>67</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F26" s="13"/>
+      <c r="G26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -1142,9 +1291,13 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F27" s="13"/>
+      <c r="G27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -1152,9 +1305,13 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F28" s="13"/>
+      <c r="G28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -1162,9 +1319,13 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29" s="13"/>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1172,9 +1333,13 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F30" s="13"/>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -1182,9 +1347,13 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F31" s="13"/>
+      <c r="G31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -1194,9 +1363,13 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F32" s="13"/>
+      <c r="G32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1204,9 +1377,13 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F33" s="13"/>
+      <c r="G33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -1214,9 +1391,13 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="13"/>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1224,9 +1405,13 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F35" s="13"/>
+      <c r="G35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -1234,9 +1419,13 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F36" s="13"/>
+      <c r="G36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1244,9 +1433,13 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F37" s="13"/>
+      <c r="G37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -1254,9 +1447,13 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F38" s="13"/>
+      <c r="G38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -1266,9 +1463,13 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F39" s="13"/>
+      <c r="G39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>80</v>
       </c>
@@ -1276,9 +1477,13 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F40" s="13"/>
+      <c r="G40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -1288,9 +1493,13 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F41" s="13"/>
+      <c r="G41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -1298,9 +1507,13 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F42" s="13"/>
+      <c r="G42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -1308,9 +1521,13 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F43" s="13"/>
+      <c r="G43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -1318,9 +1535,13 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F44" s="13"/>
+      <c r="G44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -1328,9 +1549,13 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F45" s="13"/>
+      <c r="G45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1338,9 +1563,13 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F46" s="13"/>
+      <c r="G46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -1348,9 +1577,13 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F47" s="13"/>
+      <c r="G47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -1358,9 +1591,13 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F48" s="13"/>
+      <c r="G48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
@@ -1370,9 +1607,13 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F49" s="13"/>
+      <c r="G49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
@@ -1380,9 +1621,13 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F50" s="13"/>
+      <c r="G50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
@@ -1392,9 +1637,13 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F51" s="13"/>
+      <c r="G51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
@@ -1402,9 +1651,13 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F52" s="13"/>
+      <c r="G52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -1412,9 +1665,13 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F53" s="13"/>
+      <c r="G53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>83</v>
       </c>
@@ -1424,9 +1681,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F54" s="13"/>
+      <c r="G54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1440,9 +1701,13 @@
         <v>7</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F55" s="13"/>
+      <c r="G55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>85</v>
       </c>
@@ -1456,9 +1721,13 @@
         <v>67</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F56" s="13"/>
+      <c r="G56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
@@ -1472,9 +1741,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F57" s="13"/>
+      <c r="G57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>87</v>
       </c>
@@ -1484,9 +1757,13 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F58" s="13"/>
+      <c r="G58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>88</v>
       </c>
@@ -1496,9 +1773,13 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F59" s="13"/>
+      <c r="G59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>89</v>
       </c>
@@ -1506,9 +1787,13 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F60" s="13"/>
+      <c r="G60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>90</v>
       </c>
@@ -1516,9 +1801,13 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F61" s="13"/>
+      <c r="G61" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
@@ -1528,9 +1817,13 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F62" s="13"/>
+      <c r="G62" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -1538,9 +1831,13 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F63" s="13"/>
+      <c r="G63" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
@@ -1552,9 +1849,13 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F64" s="13"/>
+      <c r="G64" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>85</v>
       </c>
@@ -1566,9 +1867,13 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F65" s="13"/>
+      <c r="G65" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>91</v>
       </c>
@@ -1580,9 +1885,13 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F66" s="13"/>
+      <c r="G66" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>93</v>
       </c>
@@ -1592,9 +1901,13 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F67" s="13"/>
+      <c r="G67" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>89</v>
       </c>
@@ -1602,9 +1915,13 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F68" s="13"/>
+      <c r="G68" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
@@ -1612,9 +1929,13 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F69" s="13"/>
+      <c r="G69" s="15" t="str">
+        <f t="shared" ref="G69:G84" si="1">IF(ISBLANK(E69),"",B69-E69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
@@ -1626,9 +1947,13 @@
         <v>26</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F70" s="13"/>
+      <c r="G70" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -1640,9 +1965,13 @@
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F71" s="13"/>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
@@ -1652,9 +1981,13 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F72" s="13"/>
+      <c r="G72" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -1668,9 +2001,13 @@
         <v>30</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F73" s="13"/>
+      <c r="G73" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
@@ -1684,9 +2021,13 @@
         <v>97</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F74" s="13"/>
+      <c r="G74" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
@@ -1698,9 +2039,13 @@
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F75" s="13"/>
+      <c r="G75" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>36</v>
       </c>
@@ -1714,9 +2059,13 @@
         <v>37</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F76" s="13"/>
+      <c r="G76" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>38</v>
       </c>
@@ -1730,9 +2079,13 @@
         <v>40</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F77" s="13"/>
+      <c r="G77" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>47</v>
       </c>
@@ -1744,21 +2097,33 @@
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F78" s="13"/>
+      <c r="G78" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="7">
-        <v>800</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F79" s="13"/>
+      <c r="G79" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>101</v>
       </c>
@@ -1766,9 +2131,13 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F80" s="13"/>
+      <c r="G80" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
@@ -1782,9 +2151,13 @@
         <v>102</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F81" s="13"/>
+      <c r="G81" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>31</v>
       </c>
@@ -1798,9 +2171,13 @@
         <v>33</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F82" s="13"/>
+      <c r="G82" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>103</v>
       </c>
@@ -1814,9 +2191,13 @@
         <v>105</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F83" s="13"/>
+      <c r="G83" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>106</v>
       </c>
@@ -1830,15 +2211,19 @@
         <v>67</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F84" s="13"/>
+      <c r="G84" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B85" s="7">
         <f>SUM(B3:B84)</f>
-        <v>149089</v>
+        <v>148739</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -1846,11 +2231,235 @@
         <f>SUM(E3:E84)</f>
         <v>25000</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF14684-BFE9-4626-AACE-E2841BE62915}">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <f>SUM(A1:A39)</f>
+        <v>148739</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A39">
+    <sortCondition descending="1" ref="A1:A39"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C154D6D-FEE2-4AA1-9B8C-70AC0C864FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2159E-9024-4BEC-9A1E-06EA92A0D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>种类</t>
   </si>
@@ -337,15 +337,9 @@
     <t>美的508，低于4500</t>
   </si>
   <si>
-    <t>乐天鹅</t>
-  </si>
-  <si>
     <t>生活阳台</t>
   </si>
   <si>
-    <t>要找团，迷瞪7500，抖音直播间7600</t>
-  </si>
-  <si>
     <t>洗衣台</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>总价</t>
   </si>
   <si>
-    <t>品得门窗</t>
-  </si>
-  <si>
     <t>惠尔顿p0038</t>
   </si>
   <si>
@@ -374,6 +365,29 @@
   </si>
   <si>
     <t>实际差价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金踢脚线</t>
+  </si>
+  <si>
+    <t>1688超级工厂</t>
+  </si>
+  <si>
+    <t>云鲸J4</t>
+  </si>
+  <si>
+    <t>乐天鹅T1 800G</t>
+  </si>
+  <si>
+    <t>要找团，迷瞪7500，抖音直播间年货节7600</t>
+  </si>
+  <si>
+    <t>品得门窗、龙鼎门窗极窄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大渡口建材市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,14 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,7 +550,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -554,19 +569,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +892,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -865,55 +906,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>112</v>
+      <c r="G2" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>10800</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -922,62 +963,56 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="15" t="str">
-        <f>IF(ISBLANK(E4),"",B4-E4)</f>
-        <v/>
-      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>8000</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15" t="str">
-        <f t="shared" ref="G5:G68" si="0">IF(ISBLANK(E5),"",B5-E5)</f>
-        <v/>
-      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>28000</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -986,14 +1021,13 @@
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>25000</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15">
-        <f t="shared" si="0"/>
+      <c r="G8" s="22">
         <v>3000</v>
       </c>
     </row>
@@ -1001,7 +1035,7 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>35000</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1010,166 +1044,137 @@
       <c r="D9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1000</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>8000</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>4000</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1178,76 +1183,63 @@
       <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>4000</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>599</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1256,18 +1248,15 @@
       <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="26">
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1276,422 +1265,335 @@
       <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>1000</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="26">
         <v>0</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>1000</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>1000</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>1200</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>963</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1700,18 +1602,15 @@
       <c r="D55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>330</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -1720,18 +1619,15 @@
       <c r="D56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>699</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -1740,258 +1636,210 @@
       <c r="D57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>2000</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>1800</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>1200</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>500</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>330</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>1500</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>1800</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="15" t="str">
-        <f t="shared" ref="G69:G84" si="1">IF(ISBLANK(E69),"",B69-E69)</f>
-        <v/>
-      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>1620</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>2000</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="26">
         <v>0</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>1000</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -2000,18 +1848,15 @@
       <c r="D73" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>6049</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -2020,36 +1865,30 @@
       <c r="D74" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="26">
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>4500</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -2058,18 +1897,15 @@
       <c r="D76" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>5600</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -2078,90 +1914,77 @@
       <c r="D77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E77" s="18"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>1000</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>450</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="21"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="7">
-        <v>8000</v>
+      <c r="B81" s="6">
+        <v>7499</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>2000</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -2170,69 +1993,60 @@
       <c r="D82" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="6">
+        <v>900</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="7">
-        <v>900</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="7">
+        <v>104</v>
+      </c>
+      <c r="B84" s="6">
         <v>899</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="7">
+      <c r="A85" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="6">
         <f>SUM(B3:B84)</f>
-        <v>148739</v>
+        <v>149238</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <f>SUM(E3:E84)</f>
         <v>25000</v>
       </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="15"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2255,197 +2069,197 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7">
+      <c r="A1" s="6">
         <v>35000</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>28000</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>10800</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6049</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>5600</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>4500</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>1800</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>1620</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>0</v>
       </c>
     </row>

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2159E-9024-4BEC-9A1E-06EA92A0D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B73F58F-07E2-41CD-9031-D947DB2A9C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>种类</t>
   </si>
@@ -67,9 +67,6 @@
     <t>踢脚线</t>
   </si>
   <si>
-    <t>美缝剂</t>
-  </si>
-  <si>
     <t>中央空调</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>前置过滤器</t>
   </si>
   <si>
-    <t>日夜蜂巢帘</t>
-  </si>
-  <si>
     <t>扫地机器人</t>
   </si>
   <si>
@@ -364,30 +358,50 @@
     <t>京东旗舰店，历史最低309</t>
   </si>
   <si>
+    <t>铝合金踢脚线</t>
+  </si>
+  <si>
+    <t>1688超级工厂</t>
+  </si>
+  <si>
+    <t>云鲸J4</t>
+  </si>
+  <si>
+    <t>乐天鹅T1 800G</t>
+  </si>
+  <si>
+    <t>要找团，迷瞪7500，抖音直播间年货节7600</t>
+  </si>
+  <si>
     <t>实际差价</t>
+  </si>
+  <si>
+    <t>施耐德境尚</t>
+  </si>
+  <si>
+    <t>品得门窗 龙鼎门窗</t>
+  </si>
+  <si>
+    <t>电动窗帘电机+轨道</t>
+  </si>
+  <si>
+    <t>米家智能u型梦幻帘轨道</t>
+  </si>
+  <si>
+    <t>淘宝也淳旗舰店</t>
+  </si>
+  <si>
+    <t>百叶窗78一平，日夜蜂巢帘295一平</t>
+  </si>
+  <si>
+    <t>升降书桌</t>
+  </si>
+  <si>
+    <t>环氧彩砂RGII</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铝合金踢脚线</t>
-  </si>
-  <si>
-    <t>1688超级工厂</t>
-  </si>
-  <si>
-    <t>云鲸J4</t>
-  </si>
-  <si>
-    <t>乐天鹅T1 800G</t>
-  </si>
-  <si>
-    <t>要找团，迷瞪7500，抖音直播间年货节7600</t>
-  </si>
-  <si>
-    <t>品得门窗、龙鼎门窗极窄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大渡口建材市场</t>
+    <t>水泥基填缝剂CG2WA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,15 +587,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -606,8 +611,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,16 +903,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
@@ -906,21 +920,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -930,25 +944,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -963,9 +977,9 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="21"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -974,1079 +988,1108 @@
       <c r="B5" s="6">
         <v>8000</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>1000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6">
-        <v>28000</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="22">
-        <v>3000</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="7">
+        <v>25000</v>
+      </c>
       <c r="F9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>35000</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="6">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="6">
         <v>1000</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="6">
-        <v>8000</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8000</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="B20" s="25">
+        <v>3449</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="6">
-        <v>599</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="26">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B26" s="6">
+        <v>599</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="26">
+        <v>76</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="25">
         <v>0</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="21"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21"/>
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="21"/>
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B55" s="6">
-        <v>963</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="21"/>
+        <v>1200</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B56" s="6">
-        <v>330</v>
+        <v>963</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6">
-        <v>699</v>
+        <v>330</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B58" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="21"/>
+        <v>699</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B59" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="21"/>
+        <v>2000</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="21"/>
+      <c r="A61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="21"/>
+      <c r="A62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="6">
-        <v>500</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B65" s="6">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B66" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="21"/>
+        <v>330</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="21"/>
+        <v>1500</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="21"/>
+      <c r="A69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="6">
-        <v>1620</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="21"/>
+      <c r="A70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B71" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="21"/>
+        <v>1620</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="26">
-        <v>0</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="B73" s="25">
+        <v>0</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B74" s="6">
-        <v>6049</v>
+        <v>1000</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="26">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B75" s="6">
+        <v>6049</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="6">
-        <v>4500</v>
+        <v>34</v>
+      </c>
+      <c r="B76" s="25">
+        <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B77" s="6">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B78" s="6">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B79" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="6">
         <v>450</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A80" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="21"/>
+      <c r="C80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="6">
-        <v>7499</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="21"/>
+      <c r="A81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B82" s="6">
-        <v>2000</v>
+        <v>7499</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B83" s="6">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="6">
+        <v>900</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="18"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="6">
+        <v>899</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="6">
-        <v>899</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="21"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="6">
-        <f>SUM(B3:B84)</f>
-        <v>149238</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="7">
-        <f>SUM(E3:E84)</f>
+      <c r="B86" s="6">
+        <f>SUM(B3:B85)</f>
+        <v>152687</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="7">
+        <f>SUM(E3:E85)</f>
         <v>25000</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="14"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B73F58F-07E2-41CD-9031-D947DB2A9C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB1BDD-3215-4888-AB97-3265B93816E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,9 +611,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -622,6 +619,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,35 +906,35 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -953,18 +953,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -1022,18 +1022,18 @@
       <c r="F7" s="16"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1075,11 +1075,11 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="15" t="s">
         <v>113</v>
       </c>
@@ -1090,22 +1090,22 @@
       <c r="F11" s="16"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="15" t="s">
         <v>113</v>
       </c>
@@ -1116,29 +1116,29 @@
       <c r="F13" s="16"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -1151,18 +1151,18 @@
       <c r="F16" s="16"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1177,11 +1177,11 @@
       <c r="F18" s="16"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="8" t="s">
         <v>59</v>
       </c>
@@ -1190,11 +1190,11 @@
       <c r="F19" s="16"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>3449</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -1207,7 +1207,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1224,29 +1224,29 @@
       <c r="F21" s="16"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="22"/>
       <c r="D23" s="20"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1261,18 +1261,18 @@
       <c r="F24" s="16"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -1289,11 +1289,11 @@
       <c r="F26" s="16"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1306,62 +1306,62 @@
       <c r="F27" s="16"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1374,77 +1374,77 @@
       <c r="F33" s="16"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <v>0</v>
       </c>
       <c r="C40" s="15"/>
@@ -1453,18 +1453,18 @@
       <c r="F40" s="16"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -1477,11 +1477,11 @@
       <c r="F42" s="16"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="15" t="s">
         <v>118</v>
       </c>
@@ -1492,73 +1492,73 @@
       <c r="F43" s="16"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>72</v>
       </c>
@@ -1571,22 +1571,22 @@
       <c r="F50" s="16"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="25"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="4" t="s">
         <v>118</v>
       </c>
@@ -1597,29 +1597,29 @@
       <c r="F52" s="16"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="F55" s="16"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="F57" s="16"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>85</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -1709,29 +1709,29 @@
       <c r="F60" s="16"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -1744,18 +1744,18 @@
       <c r="F63" s="16"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="F65" s="16"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>89</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="F67" s="16"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -1813,29 +1813,29 @@
       <c r="F68" s="16"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>24</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="F71" s="16"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -1865,11 +1865,11 @@
       <c r="F72" s="16"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="24">
         <v>0</v>
       </c>
       <c r="C73" s="15"/>
@@ -1878,7 +1878,7 @@
       <c r="F73" s="16"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>93</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="18"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
@@ -1912,11 +1912,11 @@
       <c r="F75" s="16"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="24">
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -1927,7 +1927,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="18"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="F77" s="16"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>46</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>47</v>
       </c>
@@ -1995,18 +1995,18 @@
       <c r="F80" s="16"/>
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="25"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="16"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="18"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>99</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="F85" s="16"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>104</v>
       </c>
@@ -2109,204 +2109,204 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
         <v>35000</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>28000</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>10800</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6049</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1620</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>963</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>699</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>SUM(A1:A39)</f>
         <v>148739</v>

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\productivity-tools\装修总结\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB1BDD-3215-4888-AB97-3265B93816E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7EAB43-6CCA-41CB-8048-DB5C13F52B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>橱柜</t>
   </si>
   <si>
-    <t>浪鲸</t>
-  </si>
-  <si>
     <t>淘宝旗舰店</t>
   </si>
   <si>
@@ -145,18 +142,12 @@
     <t>冰箱</t>
   </si>
   <si>
-    <t>天猫京东旗舰店</t>
-  </si>
-  <si>
     <t>洗碗机</t>
   </si>
   <si>
     <t>方太03-G6</t>
   </si>
   <si>
-    <t>重百</t>
-  </si>
-  <si>
     <t>电视</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>洗衣机、烘干机</t>
   </si>
   <si>
-    <t>海尔176xs+376</t>
-  </si>
-  <si>
     <t>沙发</t>
   </si>
   <si>
@@ -370,9 +358,6 @@
     <t>乐天鹅T1 800G</t>
   </si>
   <si>
-    <t>要找团，迷瞪7500，抖音直播间年货节7600</t>
-  </si>
-  <si>
     <t>实际差价</t>
   </si>
   <si>
@@ -397,12 +382,25 @@
     <t>升降书桌</t>
   </si>
   <si>
+    <t>水泥基填缝剂CG2WA</t>
+  </si>
+  <si>
     <t>环氧彩砂RGII</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥基填缝剂CG2WA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日丰带龙头</t>
+  </si>
+  <si>
+    <t>抖音直播间官方</t>
+  </si>
+  <si>
+    <t>重百大客户经理</t>
+  </si>
+  <si>
+    <t>海尔376套</t>
+  </si>
+  <si>
+    <t>要找团，迷瞪少于7000，拼多多7400+</t>
   </si>
 </sst>
 </file>
@@ -905,23 +903,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -930,7 +928,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -944,16 +942,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -964,7 +962,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -981,7 +979,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -994,7 +992,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1002,18 +1000,18 @@
         <v>1000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
@@ -1022,9 +1020,9 @@
       <c r="F7" s="16"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="15"/>
@@ -1033,7 +1031,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1064,24 +1062,24 @@
         <v>35000</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>7</v>
@@ -1090,9 +1088,9 @@
       <c r="F11" s="16"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="15"/>
@@ -1101,13 +1099,13 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>7</v>
@@ -1116,7 +1114,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1127,9 +1125,9 @@
       <c r="F14" s="16"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="15"/>
@@ -1138,9 +1136,9 @@
       <c r="F15" s="16"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="6">
         <v>1000</v>
@@ -1151,7 +1149,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1162,71 +1160,71 @@
       <c r="F17" s="16"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6">
         <v>8000</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B20" s="24">
         <v>3449</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6">
         <v>4000</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="15"/>
@@ -1235,9 +1233,9 @@
       <c r="F22" s="16"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="22"/>
@@ -1246,24 +1244,24 @@
       <c r="F23" s="16"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6">
         <v>4000</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="15"/>
@@ -1272,43 +1270,43 @@
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6">
         <v>599</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="24">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="15"/>
@@ -1317,9 +1315,9 @@
       <c r="F28" s="16"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="15"/>
@@ -1328,9 +1326,9 @@
       <c r="F29" s="16"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="15"/>
@@ -1339,9 +1337,9 @@
       <c r="F30" s="16"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="15"/>
@@ -1350,9 +1348,9 @@
       <c r="F31" s="16"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="15"/>
@@ -1361,9 +1359,9 @@
       <c r="F32" s="16"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6">
         <v>1000</v>
@@ -1374,9 +1372,9 @@
       <c r="F33" s="16"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="15"/>
@@ -1385,9 +1383,9 @@
       <c r="F34" s="16"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="15"/>
@@ -1396,9 +1394,9 @@
       <c r="F35" s="16"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="15"/>
@@ -1407,9 +1405,9 @@
       <c r="F36" s="16"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="15"/>
@@ -1418,9 +1416,9 @@
       <c r="F37" s="16"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="15"/>
@@ -1429,9 +1427,9 @@
       <c r="F38" s="16"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="15"/>
@@ -1440,9 +1438,9 @@
       <c r="F39" s="16"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" s="24">
         <v>0</v>
@@ -1453,9 +1451,9 @@
       <c r="F40" s="16"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="15"/>
@@ -1464,9 +1462,9 @@
       <c r="F41" s="16"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B42" s="6">
         <v>1000</v>
@@ -1477,24 +1475,24 @@
       <c r="F42" s="16"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="15"/>
@@ -1503,9 +1501,9 @@
       <c r="F44" s="16"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="15"/>
@@ -1514,9 +1512,9 @@
       <c r="F45" s="16"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="15"/>
@@ -1525,9 +1523,9 @@
       <c r="F46" s="16"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="15"/>
@@ -1536,9 +1534,9 @@
       <c r="F47" s="16"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="15"/>
@@ -1547,9 +1545,9 @@
       <c r="F48" s="16"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="15"/>
@@ -1558,9 +1556,9 @@
       <c r="F49" s="16"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" s="6">
         <v>1000</v>
@@ -1571,9 +1569,9 @@
       <c r="F50" s="16"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="15"/>
@@ -1582,24 +1580,24 @@
       <c r="F51" s="16"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="15"/>
@@ -1608,9 +1606,9 @@
       <c r="F53" s="16"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="15"/>
@@ -1619,9 +1617,9 @@
       <c r="F54" s="16"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" s="6">
         <v>1200</v>
@@ -1632,7 +1630,7 @@
       <c r="F55" s="16"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>963</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>7</v>
@@ -1649,9 +1647,9 @@
       <c r="F56" s="16"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B57" s="6">
         <v>330</v>
@@ -1660,13 +1658,13 @@
         <v>21</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>699</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>7</v>
@@ -1683,9 +1681,9 @@
       <c r="F58" s="16"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="6">
         <v>2000</v>
@@ -1696,9 +1694,9 @@
       <c r="F59" s="16"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B60" s="6">
         <v>1800</v>
@@ -1709,9 +1707,9 @@
       <c r="F60" s="16"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="15"/>
@@ -1720,9 +1718,9 @@
       <c r="F61" s="16"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="15"/>
@@ -1731,9 +1729,9 @@
       <c r="F62" s="16"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B63" s="6">
         <v>1200</v>
@@ -1744,7 +1742,7 @@
       <c r="F63" s="16"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1753,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -1770,9 +1768,9 @@
       <c r="F65" s="16"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" s="6">
         <v>330</v>
@@ -1785,24 +1783,24 @@
       <c r="F66" s="16"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6">
         <v>1500</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="16"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B68" s="6">
         <v>1800</v>
@@ -1813,9 +1811,9 @@
       <c r="F68" s="16"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="15"/>
@@ -1824,7 +1822,7 @@
       <c r="F69" s="16"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +1833,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>24</v>
       </c>
@@ -1850,9 +1848,9 @@
       <c r="F71" s="16"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B72" s="6">
         <v>2000</v>
@@ -1865,7 +1863,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>27</v>
       </c>
@@ -1878,126 +1876,126 @@
       <c r="F73" s="16"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B74" s="6">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="16"/>
       <c r="G74" s="18"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="6">
         <v>6049</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="16"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" s="24">
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="16"/>
       <c r="G76" s="18"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="6">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="16"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" s="6">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="16"/>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B79" s="6">
         <v>1000</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="16"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B80" s="6">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="16"/>
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="15"/>
@@ -2006,81 +2004,81 @@
       <c r="F81" s="16"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B82" s="6">
-        <v>7499</v>
+        <v>7300</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="16"/>
       <c r="G82" s="18"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83" s="6">
         <v>2000</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="16"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B84" s="6">
         <v>900</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B85" s="6">
         <v>899</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="16"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B86" s="6">
         <f>SUM(B3:B85)</f>
-        <v>152687</v>
+        <v>151728</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2109,204 +2107,204 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="6">
         <v>35000</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>28000</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>10800</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>6049</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>1620</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>963</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>699</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <f>SUM(A1:A39)</f>
         <v>148739</v>

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7EAB43-6CCA-41CB-8048-DB5C13F52B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C9067C-985E-42B3-8AC9-21F2EDFD223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>种类</t>
   </si>
@@ -331,12 +331,6 @@
     <t>淘宝</t>
   </si>
   <si>
-    <t>晾衣架</t>
-  </si>
-  <si>
-    <t>米家1s</t>
-  </si>
-  <si>
     <t>总价</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>实际差价</t>
   </si>
   <si>
-    <t>施耐德境尚</t>
-  </si>
-  <si>
     <t>品得门窗 龙鼎门窗</t>
   </si>
   <si>
@@ -401,6 +392,23 @@
   </si>
   <si>
     <t>要找团，迷瞪少于7000，拼多多7400+</t>
+  </si>
+  <si>
+    <t>平板灯</t>
+  </si>
+  <si>
+    <t>易来智能面板灯3060*2</t>
+  </si>
+  <si>
+    <t>京东旗舰店</t>
+  </si>
+  <si>
+    <t>成丰智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜园坝灯饰广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,7 +467,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -469,45 +477,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -528,98 +501,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,14 +831,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
@@ -918,52 +846,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
+      <c r="G2" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6">
@@ -975,64 +903,64 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>8000</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6">
         <v>1000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6">
@@ -1044,18 +972,18 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="14">
         <v>25000</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6">
@@ -1067,146 +995,148 @@
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="10">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="6">
         <v>1000</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="6">
         <v>8000</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="10">
+        <v>3449</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="24">
-        <v>3449</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="6">
@@ -1218,60 +1148,60 @@
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="6">
         <v>4000</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="6">
@@ -1283,15 +1213,15 @@
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="10">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1300,338 +1230,338 @@
       <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="6">
         <v>1000</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="10">
         <v>0</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="6">
         <v>1000</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="18"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="18"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6">
         <v>1000</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="6">
         <v>1200</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="6">
@@ -1643,12 +1573,12 @@
       <c r="D56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B57" s="6">
@@ -1660,12 +1590,12 @@
       <c r="D57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="6">
@@ -1677,84 +1607,84 @@
       <c r="D58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="18"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B59" s="6">
         <v>2000</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="18"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="6">
         <v>1800</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="18"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="18"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="18"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B63" s="6">
         <v>1200</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="18"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="18"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="6">
@@ -1763,13 +1693,13 @@
       <c r="C65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="18"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="6">
@@ -1778,123 +1708,123 @@
       <c r="C66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="18"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B67" s="6">
         <v>1500</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="18"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B68" s="6">
         <v>1800</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="18"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="18"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="18"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="6">
         <v>1620</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="12"/>
+      <c r="D71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="18"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B72" s="6">
         <v>2000</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="18"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="10">
         <v>0</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="18"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B74" s="6">
         <v>1300</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="18"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="6">
@@ -1906,27 +1836,27 @@
       <c r="D75" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="18"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="10">
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="18"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B77" s="6">
@@ -1936,14 +1866,14 @@
         <v>93</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B78" s="6">
@@ -1953,141 +1883,141 @@
         <v>36</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="13"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="6">
         <v>1000</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="18"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="6">
         <v>390</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="6">
+        <v>380</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="18"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B83" s="6">
         <v>7300</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="18"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
+      <c r="C83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B84" s="6">
         <v>2000</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="18"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B85" s="6">
         <v>900</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="18"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="B85" s="6">
-        <v>899</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="B86" s="6">
         <f>SUM(B3:B85)</f>
-        <v>151728</v>
+        <v>155209</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="7">
+      <c r="E86" s="14">
         <f>SUM(E3:E85)</f>
         <v>25000</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="14"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2110,197 +2040,197 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6">
+      <c r="A1" s="2">
         <v>35000</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>28000</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>10800</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>6049</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>5600</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>4500</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>1800</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>1620</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
+      <c r="A21" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
+      <c r="A23" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6">
+      <c r="A25" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
+      <c r="A26" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6">
+      <c r="A28" s="2">
         <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
+      <c r="A29" s="2">
         <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6">
+      <c r="A30" s="2">
         <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
+      <c r="A31" s="2">
         <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
+      <c r="A32" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
+      <c r="A33" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
+      <c r="A34" s="2">
         <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="6">
+      <c r="A35" s="2">
         <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10">
+      <c r="A36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="10">
+      <c r="A37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="10">
+      <c r="A38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="10">
+      <c r="A39" s="3">
         <v>0</v>
       </c>
     </row>

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C9067C-985E-42B3-8AC9-21F2EDFD223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFEF89B-0B9C-44E8-8377-4098C3D6F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>种类</t>
   </si>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>菜园坝灯饰广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调出风口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1257,8 +1261,8 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
-        <v>65</v>
+      <c r="A30" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -1268,8 +1272,8 @@
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>66</v>
+      <c r="A31" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
@@ -1280,7 +1284,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
@@ -1291,11 +1295,9 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1000</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1304,9 +1306,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1000</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1315,7 +1319,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -1337,7 +1341,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -1348,7 +1352,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -1359,7 +1363,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -1370,11 +1374,9 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="10">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -1382,10 +1384,12 @@
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="10"/>
+      <c r="A41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -1393,12 +1397,10 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1000</v>
-      </c>
+      <c r="A42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -1407,33 +1409,35 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
@@ -1444,7 +1448,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -1454,8 +1458,8 @@
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
-        <v>75</v>
+      <c r="A47" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -1465,8 +1469,8 @@
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
-        <v>66</v>
+      <c r="A48" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -1477,7 +1481,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -1488,11 +1492,9 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1000</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -1501,9 +1503,11 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1000</v>
+      </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -1512,33 +1516,33 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="C53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="9" t="s">
-        <v>76</v>
+      <c r="A54" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -1548,12 +1552,10 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1200</v>
-      </c>
+      <c r="A55" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -1562,33 +1564,29 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B56" s="6">
-        <v>963</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B57" s="6">
-        <v>330</v>
+        <v>963</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -1596,16 +1594,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B58" s="6">
-        <v>699</v>
+        <v>330</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -1613,23 +1611,27 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+        <v>699</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -1639,9 +1641,11 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1800</v>
+      </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -1649,8 +1653,8 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="9" t="s">
-        <v>84</v>
+      <c r="A62" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -1660,12 +1664,10 @@
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="6">
-        <v>1200</v>
-      </c>
+      <c r="A63" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -1674,9 +1676,11 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1200</v>
+      </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -1685,14 +1689,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="6">
-        <v>500</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B67" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>86</v>
+        <v>330</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -1730,12 +1730,14 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C68" s="11"/>
+        <v>1500</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -1743,9 +1745,11 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1800</v>
+      </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -1753,8 +1757,8 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="9" t="s">
-        <v>23</v>
+      <c r="A70" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
@@ -1764,43 +1768,41 @@
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1620</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B72" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="11"/>
+        <v>1620</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="10">
-        <v>0</v>
-      </c>
-      <c r="C73" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -1808,33 +1810,29 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B74" s="10">
+        <v>0</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B75" s="6">
-        <v>6049</v>
+        <v>1300</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -1842,48 +1840,48 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="10">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B76" s="6">
+        <v>6049</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="6">
-        <v>4200</v>
+        <v>33</v>
+      </c>
+      <c r="B77" s="10">
+        <v>0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="6">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -1891,16 +1889,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B79" s="6">
-        <v>1000</v>
+        <v>4900</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -1908,16 +1906,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="6">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -1925,61 +1923,61 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B81" s="6">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="6">
+        <v>380</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="6">
-        <v>7300</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="A83" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B84" s="6">
-        <v>2000</v>
+        <v>7300</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -1987,37 +1985,54 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B85" s="6">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="6">
+        <v>900</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="6">
-        <f>SUM(B3:B85)</f>
+      <c r="B87" s="6">
+        <f>SUM(B3:B86)</f>
         <v>155209</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="14">
-        <f>SUM(E3:E85)</f>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="14">
+        <f>SUM(E3:E86)</f>
         <v>25000</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/装修总结/装修材料价格表.xlsx
+++ b/装修总结/装修材料价格表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\default\Documents\my project\productivity-tools\装修总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81B1E6-BD7E-4067-B312-E755F977DD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17184577-B17B-4400-BAD4-2353B8FA8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,52 +649,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,2007 +977,2007 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.86328125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.53125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.53125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>85000</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <f>G3-I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>600</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8">
+      <c r="F4" s="8"/>
+      <c r="G4" s="7">
         <v>600</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K67" si="0">G4-I4</f>
         <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>7170</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
+      <c r="G5" s="7"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>10000</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="G6" s="7"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1000</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
+      <c r="G7" s="7"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1000</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>25000</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>25000</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>40000</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>700</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>6.77</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7">
         <v>6.77</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <f t="shared" si="0"/>
         <v>6.77</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1174.56</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>1174.56</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="0"/>
         <v>1174.56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>12.2</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>12.2</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>4000</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1200</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>680</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>68</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
+      <c r="G16" s="7"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1000</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>338</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>169</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>10000</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>830</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8">
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8">
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>3449</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8">
+      <c r="G21" s="7"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>4000</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8">
+      <c r="G22" s="7"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>6000</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>2000</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8">
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>5000</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>599</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8">
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>50</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>50</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>300</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>62</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8">
+      <c r="G30" s="7"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>4400</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8">
+      <c r="G31" s="7"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8">
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>1000</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8">
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>3000</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>500</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1000</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8">
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>308</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8">
+      <c r="G43" s="7"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>3000</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>500</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>1700</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8">
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1000</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8">
+      <c r="G50" s="7"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>308</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8">
+      <c r="G51" s="7"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>900</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8">
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>836</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <v>914</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>78</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8">
+      <c r="J53" s="7"/>
+      <c r="K53" s="7">
         <f t="shared" si="0"/>
         <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>330</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8">
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>820</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>919</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>99</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="7">
         <f t="shared" si="0"/>
         <v>820</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>2149</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8">
+      <c r="G56" s="7"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>1800</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>650</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8">
+      <c r="G57" s="7"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>900</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9" t="s">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8">
+      <c r="G58" s="7"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>599</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <v>599</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7">
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>500</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8">
+      <c r="F60" s="8"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>330</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8">
+      <c r="F61" s="8"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>1398.75</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>2847.69</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <v>1499</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="7">
         <f t="shared" si="0"/>
         <v>1348.69</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>1550</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>500</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8">
+      <c r="G63" s="7"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>5000</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>450</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8">
+      <c r="G64" s="7"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>2500</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>700</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8">
+      <c r="G65" s="7"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>1206</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="17" t="s">
+      <c r="D66" s="8"/>
+      <c r="E66" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>1269</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>63</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="7">
         <f t="shared" si="0"/>
         <v>1206</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>5489.1</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="17" t="s">
+      <c r="D67" s="8"/>
+      <c r="E67" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <v>6099</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <v>609.9</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="7">
         <f t="shared" si="0"/>
         <v>5489.1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>4076</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="17" t="s">
+      <c r="D68" s="8"/>
+      <c r="E68" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <v>4496</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>420</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K68" s="8">
-        <f t="shared" ref="K68:K77" si="1">G68-I68</f>
+      <c r="K68" s="7">
+        <f t="shared" ref="K68:K76" si="1">G68-I68</f>
         <v>4076</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>4900</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8">
+      <c r="G69" s="7"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>2000</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8">
+      <c r="G70" s="7"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>339</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <v>339</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8">
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>400</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8">
+      <c r="G72" s="7"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>10500</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="17" t="s">
+      <c r="D73" s="8"/>
+      <c r="E73" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8">
+      <c r="G73" s="7"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>1469</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>1959</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>490</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="7">
         <f t="shared" si="1"/>
         <v>1469</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>40</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8">
+      <c r="G75" s="7"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>1130</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <v>1130</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I76" s="8">
-        <v>0</v>
-      </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8">
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7">
         <f t="shared" si="1"/>
         <v>1130</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="7">
+      <c r="B77" s="8"/>
+      <c r="C77" s="6">
         <f>SUM(C3:C76)</f>
         <v>277507.38</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="7">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="6">
         <f>SUM(G3:G76)</f>
         <v>47534.22</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="7">
+      <c r="H77" s="9"/>
+      <c r="I77" s="6">
         <f>SUM(I3:I76)</f>
         <v>3258.9</v>
       </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="8">
+      <c r="J77" s="9"/>
+      <c r="K77" s="7">
         <f>SUM(K3:K76)</f>
         <v>44275.32</v>
       </c>
